--- a/Documents/Thông tin mua hàng/mua hang.xlsx
+++ b/Documents/Thông tin mua hàng/mua hang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>THÔNG TIN MUA HÀNG THÁNG 06 NĂM 2011</t>
+  </si>
+  <si>
+    <t>Mã số</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>M0001</t>
+  </si>
+  <si>
+    <t>M0002</t>
+  </si>
+  <si>
+    <t>M0003</t>
+  </si>
+  <si>
+    <t>M0004</t>
+  </si>
+  <si>
+    <t>M0005</t>
+  </si>
+  <si>
+    <t>Người Nhận</t>
+  </si>
+  <si>
+    <t>Người giao</t>
   </si>
 </sst>
 </file>
@@ -167,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,16 +555,18 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -573,10 +606,16 @@
       <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
+      <c r="A3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -597,7 +636,9 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -617,7 +658,9 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -637,7 +680,9 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -657,7 +702,9 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -687,11 +734,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -709,7 +757,7 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -731,7 +779,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
@@ -751,7 +801,9 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
@@ -772,6 +824,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Thông tin mua hàng/mua hang.xlsx
+++ b/Documents/Thông tin mua hàng/mua hang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Người giao</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Ganl</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>Tổng:</t>
   </si>
 </sst>
 </file>
@@ -114,7 +132,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +178,33 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,11 +238,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,7 +291,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -251,6 +306,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,19 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="25" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -573,7 +635,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="14"/>
@@ -584,7 +646,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -594,7 +656,7 @@
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -603,17 +665,17 @@
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -629,13 +691,19 @@
       <c r="E3" s="16">
         <v>243555</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>D3*E3</f>
         <v>1217775</v>
       </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -655,9 +723,18 @@
         <f t="shared" ref="F4:F7" si="0">D4*E4</f>
         <v>1032727</v>
       </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="27">
+        <f>F4*1.1</f>
+        <v>1135999.7000000002</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -677,9 +754,18 @@
         <f t="shared" si="0"/>
         <v>1032727</v>
       </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="27">
+        <f t="shared" ref="G5:G7" si="1">F5*1.1</f>
+        <v>1135999.7000000002</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -699,9 +785,18 @@
         <f t="shared" si="0"/>
         <v>1091000</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="27">
+        <f t="shared" si="1"/>
+        <v>1200100</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -721,7 +816,22 @@
         <f t="shared" si="0"/>
         <v>879700</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="27">
+        <f t="shared" si="1"/>
+        <v>967670.00000000012</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,10 +841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,16 +856,17 @@
     <col min="5" max="5" width="15" style="13" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="13" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D1" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -774,12 +885,18 @@
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="H2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -795,13 +912,22 @@
         <v>479000</v>
       </c>
       <c r="F3" s="9">
-        <f>E3</f>
+        <f>'062011'!E3</f>
         <v>479000</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="G3" s="8">
+        <f>F3*1.1</f>
+        <v>526900</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -820,7 +946,16 @@
         <f>E4</f>
         <v>786927</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <f>F4*1.1</f>
+        <v>865619.70000000007</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
